--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="H2">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="I2">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="J2">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N2">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O2">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P2">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q2">
-        <v>0.4889784927909999</v>
+        <v>0.3780946940033333</v>
       </c>
       <c r="R2">
-        <v>4.400806435118999</v>
+        <v>3.40285224603</v>
       </c>
       <c r="S2">
-        <v>0.0003978006385152809</v>
+        <v>0.0001201419100766208</v>
       </c>
       <c r="T2">
-        <v>0.000397800638515281</v>
+        <v>0.0001201419100766208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="H3">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="I3">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="J3">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>74.544746</v>
       </c>
       <c r="O3">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P3">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q3">
-        <v>29.39500605594199</v>
+        <v>30.03369715692044</v>
       </c>
       <c r="R3">
-        <v>264.555054503478</v>
+        <v>270.303274412284</v>
       </c>
       <c r="S3">
-        <v>0.02391383741945531</v>
+        <v>0.009543391643214614</v>
       </c>
       <c r="T3">
-        <v>0.02391383741945532</v>
+        <v>0.009543391643214614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="H4">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="I4">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="J4">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N4">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O4">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P4">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q4">
-        <v>4.922258939340999</v>
+        <v>15.55213593652267</v>
       </c>
       <c r="R4">
-        <v>44.30033045406899</v>
+        <v>139.969223428704</v>
       </c>
       <c r="S4">
-        <v>0.004004425098190001</v>
+        <v>0.004941786665666925</v>
       </c>
       <c r="T4">
-        <v>0.004004425098190003</v>
+        <v>0.004941786665666925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="H5">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="I5">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="J5">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N5">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O5">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P5">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q5">
-        <v>0.009803363547</v>
+        <v>0.07124148583288889</v>
       </c>
       <c r="R5">
-        <v>0.08823027192299999</v>
+        <v>0.641173372496</v>
       </c>
       <c r="S5">
-        <v>7.975369747521557E-06</v>
+        <v>2.263741946239619E-05</v>
       </c>
       <c r="T5">
-        <v>7.975369747521558E-06</v>
+        <v>2.263741946239619E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>15.534092</v>
       </c>
       <c r="I6">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="J6">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N6">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O6">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P6">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q6">
-        <v>2.140309633892889</v>
+        <v>1.619765662993334</v>
       </c>
       <c r="R6">
-        <v>19.262786705036</v>
+        <v>14.57789096694</v>
       </c>
       <c r="S6">
-        <v>0.001741214698673694</v>
+        <v>0.0005146904828736568</v>
       </c>
       <c r="T6">
-        <v>0.001741214698673695</v>
+        <v>0.0005146904828736567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>15.534092</v>
       </c>
       <c r="I7">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="J7">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>74.544746</v>
       </c>
       <c r="O7">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P7">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q7">
         <v>128.6649936089591</v>
@@ -883,10 +883,10 @@
         <v>1157.984942480632</v>
       </c>
       <c r="S7">
-        <v>0.104673349373845</v>
+        <v>0.04088409157109271</v>
       </c>
       <c r="T7">
-        <v>0.104673349373845</v>
+        <v>0.04088409157109271</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>15.534092</v>
       </c>
       <c r="I8">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="J8">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N8">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O8">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P8">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q8">
-        <v>21.54523845875956</v>
+        <v>66.62567916375468</v>
       </c>
       <c r="R8">
-        <v>193.907146128836</v>
+        <v>599.6311124737921</v>
       </c>
       <c r="S8">
-        <v>0.01752778443677245</v>
+        <v>0.02117071855765063</v>
       </c>
       <c r="T8">
-        <v>0.01752778443677245</v>
+        <v>0.02117071855765062</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>15.534092</v>
       </c>
       <c r="I9">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="J9">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N9">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O9">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P9">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q9">
-        <v>0.04291034013466668</v>
+        <v>0.3052000315342223</v>
       </c>
       <c r="R9">
-        <v>0.386193061212</v>
+        <v>2.746800283808</v>
       </c>
       <c r="S9">
-        <v>3.490902147259527E-05</v>
+        <v>9.697918358950338E-05</v>
       </c>
       <c r="T9">
-        <v>3.490902147259527E-05</v>
+        <v>9.697918358950335E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="H10">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="I10">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="J10">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N10">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O10">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P10">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q10">
-        <v>14.59745615479411</v>
+        <v>23.82467410931834</v>
       </c>
       <c r="R10">
-        <v>131.377105393147</v>
+        <v>214.422066983865</v>
       </c>
       <c r="S10">
-        <v>0.01187552717488926</v>
+        <v>0.007570436453734747</v>
       </c>
       <c r="T10">
-        <v>0.01187552717488927</v>
+        <v>0.007570436453734746</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="H11">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="I11">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="J11">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>74.544746</v>
       </c>
       <c r="O11">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P11">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q11">
-        <v>877.5279861949349</v>
+        <v>1892.496928442169</v>
       </c>
       <c r="R11">
-        <v>7897.751875754415</v>
+        <v>17032.47235597952</v>
       </c>
       <c r="S11">
-        <v>0.7138988695205835</v>
+        <v>0.6013525167194641</v>
       </c>
       <c r="T11">
-        <v>0.7138988695205838</v>
+        <v>0.601352516719464</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="H12">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="I12">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="J12">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N12">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O12">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P12">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q12">
-        <v>146.9440069632774</v>
+        <v>979.9782336755148</v>
       </c>
       <c r="R12">
-        <v>1322.496062669497</v>
+        <v>8819.804103079632</v>
       </c>
       <c r="S12">
-        <v>0.119543948573972</v>
+        <v>0.3113940996650205</v>
       </c>
       <c r="T12">
-        <v>0.1195439485739721</v>
+        <v>0.3113940996650204</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="H13">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="I13">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="J13">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N13">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O13">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P13">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q13">
-        <v>0.2926594352443334</v>
+        <v>4.489100772774223</v>
       </c>
       <c r="R13">
-        <v>2.633934917199</v>
+        <v>40.40190695496801</v>
       </c>
       <c r="S13">
-        <v>0.0002380884065947616</v>
+        <v>0.001426439328351894</v>
       </c>
       <c r="T13">
-        <v>0.0002380884065947617</v>
+        <v>0.001426439328351893</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="H14">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="I14">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="J14">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N14">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O14">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P14">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q14">
-        <v>0.03698357088066666</v>
+        <v>0.02486701988166667</v>
       </c>
       <c r="R14">
-        <v>0.332852137926</v>
+        <v>0.223803178935</v>
       </c>
       <c r="S14">
-        <v>3.008739306084902E-05</v>
+        <v>7.901648221676444E-06</v>
       </c>
       <c r="T14">
-        <v>3.008739306084903E-05</v>
+        <v>7.901648221676442E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="H15">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="I15">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="J15">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>74.544746</v>
       </c>
       <c r="O15">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P15">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q15">
-        <v>2.223272201201333</v>
+        <v>1.975294962257556</v>
       </c>
       <c r="R15">
-        <v>20.009449810812</v>
+        <v>17.777654660318</v>
       </c>
       <c r="S15">
-        <v>0.001808707569494645</v>
+        <v>0.0006276621002469215</v>
       </c>
       <c r="T15">
-        <v>0.001808707569494646</v>
+        <v>0.0006276621002469214</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="H16">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="I16">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="J16">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N16">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O16">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P16">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q16">
-        <v>0.3722918595806666</v>
+        <v>1.022852951045333</v>
       </c>
       <c r="R16">
-        <v>3.350626736226</v>
+        <v>9.205676559408001</v>
       </c>
       <c r="S16">
-        <v>0.0003028720928192863</v>
+        <v>0.000325017804309656</v>
       </c>
       <c r="T16">
-        <v>0.0003028720928192865</v>
+        <v>0.000325017804309656</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="H17">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="I17">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="J17">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N17">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O17">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P17">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q17">
-        <v>0.0007414710380000001</v>
+        <v>0.004685501999111111</v>
       </c>
       <c r="R17">
-        <v>0.006673239342</v>
+        <v>0.042169517992</v>
       </c>
       <c r="S17">
-        <v>6.032119136230791E-07</v>
+        <v>1.488847023693147E-06</v>
       </c>
       <c r="T17">
-        <v>6.032119136230793E-07</v>
+        <v>1.488847023693147E-06</v>
       </c>
     </row>
   </sheetData>
